--- a/phython배우기.xlsx
+++ b/phython배우기.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SungSoo Kim\Desktop\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADAC2A4-18DA-45D7-B39D-EB8EF77DD4C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C4EBBF-A701-4A16-91B2-9CA3857BE1BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C5A844BC-3CBD-4701-9B7A-BF602D06B270}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="1439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="1491">
   <si>
     <t>여러문장을 한번에 주석처리하기</t>
   </si>
@@ -4430,6 +4430,162 @@
   </si>
   <si>
     <t>'__reduce_ex__', '__repr__', '__rmod__', '__rmul__', '__setattr__', '__sizeof__', '__str__', '__subclasshook__', 'capitalize', 'casefold', 'center', 'count', 'encode', 'endswith', 'expandtabs', 'find', 'format', 'format_map', 'index', 'isalnum', 'isalpha', 'isascii', 'isdecimal', 'isdigit', 'isidentifier', 'islower', 'isnumeric', 'isprintable', 'isspace', 'istitle', 'isupper', 'join', 'ljust', 'lower', 'lstrip', 'maketrans', 'partition', 'removeprefix', 'removesuffix', 'replace', 'rfind', 'rindex', 'rjust', 'rpartition', 'rsplit', 'rstrip', 'split', 'splitlines', 'startswith', 'strip', 'swapcase', 'title', 'translate', 'upper', 'zfill']</t>
+  </si>
+  <si>
+    <t>#외장 함수</t>
+  </si>
+  <si>
+    <t> #glob : 경로 내의 폴더 / 파일 목록 조회(윈도우 dir)</t>
+  </si>
+  <si>
+    <t>import glob</t>
+  </si>
+  <si>
+    <t>print(glob.glob("*.py")) #확정자가 py인 모든 파일에 대해서 알려달라.</t>
+  </si>
+  <si>
+    <t>['helloworld.py', 'lottory.py', 'practice.py', 'practice_ckas.py', 'theater_module.py']</t>
+  </si>
+  <si>
+    <t>#os : 운영체제에서 제공하는 기본 기능</t>
+  </si>
+  <si>
+    <t>import os</t>
+  </si>
+  <si>
+    <t>print(os.getcwd()) #현재 디렉토리를 표시해달라</t>
+  </si>
+  <si>
+    <t>C:\Users\SungSoo Kim\Desktop\PYTHON</t>
+  </si>
+  <si>
+    <t>folder = " sample_dir"</t>
+  </si>
+  <si>
+    <t>if os.path.exists(folder):</t>
+  </si>
+  <si>
+    <t>    print("이미 존재하는 폴더입니다.")</t>
+  </si>
+  <si>
+    <t>    os.makedirs(folder) #폴더 생성하기</t>
+  </si>
+  <si>
+    <t>    print(folder, "폴더를 생성하였습니다.")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sample_dir 폴더를 생성하였습니다.</t>
+  </si>
+  <si>
+    <t>    os.rmdir(folder)</t>
+  </si>
+  <si>
+    <t>    print("폴더를 삭제하였습니다.")</t>
+  </si>
+  <si>
+    <t>이미 존재하는 폴더입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">폴더를 삭제하였습니다. </t>
+  </si>
+  <si>
+    <t>print(os.listdir())</t>
+  </si>
+  <si>
+    <t>['.git', '.vscode', 'EX', 'helloworld.py', 'lottory', 'lottory.py', 'phython배우기.xlsx', 'practice.py', 'practice_ckas.py', 'profile.pickle', 'score.txt', 'study.txt', 'theater_module.py', 'travel', '__pycache__', '~$phython배우기.xlsx']</t>
+  </si>
+  <si>
+    <t>#time : 시간 관련 함수</t>
+  </si>
+  <si>
+    <t>import time</t>
+  </si>
+  <si>
+    <t>print(time.localtime())</t>
+  </si>
+  <si>
+    <t>print(time.strftime("%m/%d/%y %H:%M:%S"))</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2023, tm_mon=7, tm_mday=24, tm_hour=13, tm_min=45, tm_sec=57, tm_wday=0, tm_yday=205, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>import datetime</t>
+  </si>
+  <si>
+    <t>print("오늘 날짜는 " , datetime.date.today())</t>
+  </si>
+  <si>
+    <t>오늘 날짜는  2023-07-24</t>
+  </si>
+  <si>
+    <t>#timedelta :두 날짜 사이의 간격</t>
+  </si>
+  <si>
+    <t>today = datetime.date.today()</t>
+  </si>
+  <si>
+    <t>td = datetime.timedelta(days=100)</t>
+  </si>
+  <si>
+    <t>print(" 우리가 만난지 100일은", today + td)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 우리가 만난지 100일은 2023-11-01</t>
+  </si>
+  <si>
+    <t>#quiz) 프로젝트 내에 나만의 시그니처를 남기는 모듈을 만드시오</t>
+  </si>
+  <si>
+    <t># 조건  : 모듈 파일명은 byme.py 로 작성</t>
+  </si>
+  <si>
+    <t># (모듈 사용 예제)</t>
+  </si>
+  <si>
+    <t># 이 프로그램은 나도코딩에 의해 만들어 졌습니다.</t>
+  </si>
+  <si>
+    <t># 유튜브 : http://youtube.com</t>
+  </si>
+  <si>
+    <t># 이메일 : nadocoding@mail.com</t>
+  </si>
+  <si>
+    <t>import byme</t>
+  </si>
+  <si>
+    <t>byme.sign()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1) 새로 만들기에서 byme.py파일을 생성한다</t>
+  </si>
+  <si>
+    <t>def sign():</t>
+  </si>
+  <si>
+    <t>    print("이 프로그램은 나도코딩에 의해 만들어 졌습니다.")</t>
+  </si>
+  <si>
+    <t>    print("유튜브 : http://youtube.com")</t>
+  </si>
+  <si>
+    <t>    print("이메일 : nadocoding@mail.com")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2) byme.py에서 아래의 코드를 작성한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3) practice.py에서 실행</t>
+  </si>
+  <si>
+    <t>이 프로그램은 나도코딩에 의해 만들어 졌습니다.</t>
+  </si>
+  <si>
+    <t>유튜브 : http://youtube.com</t>
+  </si>
+  <si>
+    <t>이메일 : nadocoding@mail.com</t>
   </si>
 </sst>
 </file>
@@ -4652,7 +4808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4713,6 +4869,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4722,12 +4884,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4755,10 +4914,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>174629</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247019</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>95841</xdr:rowOff>
+      <xdr:rowOff>92031</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4799,10 +4958,10 @@
       <xdr:rowOff>151086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>210028</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>288133</xdr:colOff>
       <xdr:row>631</xdr:row>
-      <xdr:rowOff>132932</xdr:rowOff>
+      <xdr:rowOff>136742</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4977,8 +5136,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285398</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361598</xdr:colOff>
       <xdr:row>663</xdr:row>
       <xdr:rowOff>34638</xdr:rowOff>
     </xdr:to>
@@ -5088,10 +5247,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>418438</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>511783</xdr:colOff>
       <xdr:row>811</xdr:row>
-      <xdr:rowOff>98458</xdr:rowOff>
+      <xdr:rowOff>94648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5458,10 +5617,10 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2710</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>92245</xdr:colOff>
       <xdr:row>1120</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5507,10 +5666,10 @@
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
       <xdr:row>1208</xdr:row>
-      <xdr:rowOff>134528</xdr:rowOff>
+      <xdr:rowOff>130718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5551,10 +5710,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>516418</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>588808</xdr:colOff>
       <xdr:row>1293</xdr:row>
-      <xdr:rowOff>18957</xdr:rowOff>
+      <xdr:rowOff>22767</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5595,10 +5754,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>478323</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>550713</xdr:colOff>
       <xdr:row>1274</xdr:row>
-      <xdr:rowOff>59004</xdr:rowOff>
+      <xdr:rowOff>55194</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5639,10 +5798,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>41792</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>131327</xdr:colOff>
       <xdr:row>1525</xdr:row>
-      <xdr:rowOff>19391</xdr:rowOff>
+      <xdr:rowOff>15581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5684,9 +5843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>208611</xdr:colOff>
+      <xdr:colOff>212421</xdr:colOff>
       <xdr:row>1754</xdr:row>
-      <xdr:rowOff>54551</xdr:rowOff>
+      <xdr:rowOff>58361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5727,10 +5886,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>283171</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365086</xdr:colOff>
       <xdr:row>1974</xdr:row>
-      <xdr:rowOff>22466</xdr:rowOff>
+      <xdr:rowOff>18656</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5771,10 +5930,10 @@
       <xdr:rowOff>4637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>288659</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361049</xdr:colOff>
       <xdr:row>1993</xdr:row>
-      <xdr:rowOff>58158</xdr:rowOff>
+      <xdr:rowOff>54348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5815,10 +5974,10 @@
       <xdr:rowOff>53791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>570461</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54206</xdr:colOff>
       <xdr:row>2016</xdr:row>
-      <xdr:rowOff>135033</xdr:rowOff>
+      <xdr:rowOff>131223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5859,10 +6018,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>97581</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>169971</xdr:colOff>
       <xdr:row>2049</xdr:row>
-      <xdr:rowOff>94802</xdr:rowOff>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5903,10 +6062,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>397345</xdr:colOff>
       <xdr:row>2081</xdr:row>
-      <xdr:rowOff>134299</xdr:rowOff>
+      <xdr:rowOff>130489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6070,10 +6229,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>189257</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>282602</xdr:colOff>
       <xdr:row>2137</xdr:row>
-      <xdr:rowOff>60055</xdr:rowOff>
+      <xdr:rowOff>56245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6620,10 +6779,10 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>536634</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16569</xdr:colOff>
       <xdr:row>2284</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:rowOff>93458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6664,10 +6823,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>280022</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>365747</xdr:colOff>
       <xdr:row>2332</xdr:row>
-      <xdr:rowOff>103192</xdr:rowOff>
+      <xdr:rowOff>93667</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6692,6 +6851,316 @@
         <a:xfrm>
           <a:off x="1210235" y="423078088"/>
           <a:ext cx="9961905" cy="8171428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>59839</xdr:colOff>
+      <xdr:row>2338</xdr:row>
+      <xdr:rowOff>59839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>399506</xdr:colOff>
+      <xdr:row>2360</xdr:row>
+      <xdr:rowOff>16921</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B41E1B-A2B1-48C0-9B91-A353ACFCCABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270074" y="432427604"/>
+          <a:ext cx="6931191" cy="3895837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>2471</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16870</xdr:colOff>
+      <xdr:row>2482</xdr:row>
+      <xdr:rowOff>131191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2194BC-6148-4F1B-BC92-462599317EF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1392555" y="461002380"/>
+          <a:ext cx="2196190" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>2471</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1377315</xdr:colOff>
+      <xdr:row>2472</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="직사각형 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A6925D-719A-41FC-B12F-A62A925B59D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="460989045"/>
+          <a:ext cx="234315" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2474</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>2475</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="직사각형 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3EAA38-8D85-4AC8-8EB0-9B15CCD4F109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="461507205"/>
+          <a:ext cx="1954530" cy="270510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>2490</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>455295</xdr:colOff>
+      <xdr:row>2497</xdr:row>
+      <xdr:rowOff>104560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3ECC878-9508-4205-AFF7-98C0E2BD1D02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1272540" y="464530440"/>
+          <a:ext cx="3973830" cy="1196125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2499</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>269822</xdr:colOff>
+      <xdr:row>2515</xdr:row>
+      <xdr:rowOff>89177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548AEA3E-7E86-4DB8-81D2-3763245A8E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="466098255"/>
+          <a:ext cx="5499047" cy="2866667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7026,10 +7495,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="25">
+      <c r="B4" s="29">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -7040,8 +7509,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
@@ -9924,13 +10393,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFC7D7D-F2B0-4D16-983F-4720275730B4}">
-  <dimension ref="B3:P2253"/>
+  <dimension ref="B3:P2521"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2319" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2342" sqref="T2342"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2493" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2519" sqref="C2519:C2521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:2" ht="25.2" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
@@ -17387,7 +17859,7 @@
       </c>
     </row>
     <row r="1951" spans="2:2" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B1951" s="27" t="s">
+      <c r="B1951" s="24" t="s">
         <v>1363</v>
       </c>
     </row>
@@ -17407,7 +17879,7 @@
       </c>
     </row>
     <row r="2086" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2086" s="28" t="s">
+      <c r="B2086" s="25" t="s">
         <v>1367</v>
       </c>
     </row>
@@ -17487,7 +17959,7 @@
       </c>
     </row>
     <row r="2161" spans="3:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="C2161" s="29" t="s">
+      <c r="C2161" s="26" t="s">
         <v>1382</v>
       </c>
     </row>
@@ -17587,7 +18059,7 @@
       </c>
     </row>
     <row r="2183" spans="3:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="C2183" s="30" t="s">
+      <c r="C2183" s="27" t="s">
         <v>1402</v>
       </c>
     </row>
@@ -17855,6 +18327,441 @@
     <row r="2253" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2253" t="s">
         <v>1438</v>
+      </c>
+    </row>
+    <row r="2338" spans="3:3" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C2338" s="4" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="2366" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2366" s="7" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="2367" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2367" s="7" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2368" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2368" s="7" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="2369" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2369" s="7" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="2370" spans="3:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="C2370" s="14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2372" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2372" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="2375" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2375" s="7" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="2376" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2376" s="7" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="2377" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2377" s="7" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="2378" spans="3:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="C2378" s="14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2380" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2380" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="2384" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2384" s="7" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="2385" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2385" s="7" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="2386" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2386" s="7" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="2387" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2387" s="18"/>
+    </row>
+    <row r="2388" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2388" s="7" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2389" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2389" s="18"/>
+    </row>
+    <row r="2390" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2390" s="7" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="2391" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2391" s="7" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2392" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2392" s="18"/>
+    </row>
+    <row r="2393" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2393" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2394" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2394" s="7" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="2395" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2395" s="7" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2397" spans="3:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="C2397" s="14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2398" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2398" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="2399" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2399" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="2402" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2402" s="7" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="2403" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2403" s="7" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="2404" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2404" s="7" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="2405" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2405" s="18"/>
+    </row>
+    <row r="2406" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2406" s="7" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2407" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2407" s="18"/>
+    </row>
+    <row r="2408" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2408" s="7" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="2409" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2409" s="7" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2410" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2410" s="7" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2411" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2411" s="7" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="2412" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2412" s="18"/>
+    </row>
+    <row r="2413" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2413" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2414" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2414" s="7" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="2415" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2415" s="7" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2417" spans="3:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="C2417" s="14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2418" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2418" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="2419" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2419" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="2420" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2420" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="2423" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2423" s="7" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="2424" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2424" s="7" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="2426" spans="3:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="C2426" s="14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2428" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2428" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="2431" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2431" s="7" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2432" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2432" s="7" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="2433" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2433" s="7" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="2434" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2434" s="7" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="2435" spans="3:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="C2435" s="14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2437" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2437" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="2438" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2438" s="31">
+        <v>45131.573576388888</v>
+      </c>
+    </row>
+    <row r="2441" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2441" s="7" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="2442" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2442" s="7" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="2443" spans="3:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="C2443" s="14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2444" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2444" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="2447" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2447" s="7" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="2448" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2448" s="7" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="2449" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2449" s="7" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="2450" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2450" s="7" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="2451" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2451" s="7" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="2453" spans="3:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="C2453" s="14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2454" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2454" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="2458" spans="3:3" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="C2458" s="5" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="2459" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2459" s="18"/>
+    </row>
+    <row r="2460" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2460" s="7" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="2461" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2461" s="7" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="2462" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2462" s="18"/>
+    </row>
+    <row r="2463" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2463" s="7" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2464" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2464" s="7" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="2465" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2465" s="18"/>
+    </row>
+    <row r="2466" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2466" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2467" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2467" s="7" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="2468" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2468" s="7" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="2469" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2469" s="7" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="2471" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2471" s="7" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2485" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2485" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="2486" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2486" s="7" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="2487" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2487" s="18"/>
+    </row>
+    <row r="2488" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2488" s="7" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="2489" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2489" s="7" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="2490" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2490" s="7" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="2499" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2499" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="2518" spans="3:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="C2518" s="14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2519" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2519" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="2520" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2520" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="2521" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2521" t="s">
+        <v>1490</v>
       </c>
     </row>
   </sheetData>
